--- a/ElectronicAssistantWebAPI/FileDownloaded/Для Загрузки Протоколов.xlsx
+++ b/ElectronicAssistantWebAPI/FileDownloaded/Для Загрузки Протоколов.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Пол пациента</t>
   </si>
@@ -120,6 +120,10 @@
     <t>Эхокардиография
 ЭКГ
 Биохимический анализ крови ЛПНП, ЛПВП</t>
+  </si>
+  <si>
+    <t>Для диагноза не разработан
+стандарт оказания медицинской помощи</t>
   </si>
 </sst>
 </file>
@@ -140,12 +144,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -708,6 +721,32 @@
         <v>13</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>123</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/ElectronicAssistantWebAPI/FileDownloaded/Для Загрузки Протоколов.xlsx
+++ b/ElectronicAssistantWebAPI/FileDownloaded/Для Загрузки Протоколов.xlsx
@@ -144,7 +144,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -203,6 +209,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +517,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -673,80 +688,80 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>200</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>200</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>123</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
